--- a/KNOWHOW작업일지(20.11.16).xlsx
+++ b/KNOWHOW작업일지(20.11.16).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\AI-Cost-Management-and-Prediction-Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C145A-DFD7-4263-A2ED-2143B81F4ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40F472-5B57-4EBA-96AE-B2203B5C078E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
+    <workbookView xWindow="756" yWindow="912" windowWidth="15012" windowHeight="9888" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="KNOWHOW작업일지" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>KNOWHOW팀 작업일지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>귀찮더라도 해야 나중에 서로 일꼬이지도 않고, 누가 뭘 언제 했는지 알아서 수정하거나 보고서 쓰기 쉬움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory 기본 코드 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,22 +187,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,13 +236,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54D8CE8E-CF87-44F6-8087-D9495D34AC57}" name="표5" displayName="표5" ref="E8:H21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{54D8CE8E-CF87-44F6-8087-D9495D34AC57}" name="표5" displayName="표5" ref="E8:H21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E8:H21" xr:uid="{6AC7BA54-EBD2-4269-A06F-E52FE21E8280}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{72CE2B32-CBF0-406C-B08E-D7D812814FAB}" name="날짜"/>
     <tableColumn id="2" xr3:uid="{421CC8CA-B5D1-4721-B436-32EDEFFFB8E2}" name="이름"/>
-    <tableColumn id="3" xr3:uid="{4459C314-9B42-455C-A546-76FB15096555}" name="작업내용" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{A7B1AEA2-ACCC-45E2-8CB4-B721D68DBBA8}" name="비고(인수인계)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4459C314-9B42-455C-A546-76FB15096555}" name="작업내용" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{A7B1AEA2-ACCC-45E2-8CB4-B721D68DBBA8}" name="비고(인수인계)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,14 +548,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="8.19921875" customWidth="1"/>
     <col min="4" max="4" width="6.296875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.19921875" customWidth="1"/>
     <col min="8" max="8" width="41.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.09765625" customWidth="1"/>
@@ -559,40 +563,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
@@ -623,7 +627,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G10" s="1"/>
+      <c r="E10" s="2">
+        <v>44202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -676,8 +688,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>